--- a/700 HK.xlsx
+++ b/700 HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FF86A-0F4F-4CB6-A113-63C6C61EB529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8BD0BB-2F9E-4195-9DB6-2DDCA806753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45240" yWindow="3690" windowWidth="38715" windowHeight="17130" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
+    <workbookView xWindow="38940" yWindow="2770" windowWidth="24340" windowHeight="15680" activeTab="1" xr2:uid="{C183CDF4-DAE3-4211-A459-AE4D0C2142B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>Price HKD</t>
   </si>
@@ -47,12 +47,6 @@
     <t>MC HKD</t>
   </si>
   <si>
-    <t>Cash HKD</t>
-  </si>
-  <si>
-    <t>Debt HKD</t>
-  </si>
-  <si>
     <t>EV HKD</t>
   </si>
   <si>
@@ -297,15 +291,54 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Cash CNY</t>
+  </si>
+  <si>
+    <t>Debt CNY</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -357,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,7 +414,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -410,13 +442,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -810,180 +842,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E1D774-2E12-4746-88E6-1A6120E6AF7B}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="13">
-        <v>9.6720000000000006</v>
+      <c r="L3" s="3">
+        <v>9097</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>3124.056</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>5722013</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="3">
+        <v>74592</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K7" t="s">
         <v>3</v>
-      </c>
-      <c r="L5" s="3">
-        <v>989</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="3">
-        <v>346</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>2481.056</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>5647421</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="16" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -994,131 +1027,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666C0D08-E52C-4128-A040-0E26B040CE26}">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="2"/>
+    <col min="15" max="26" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2">
+      <c r="O2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2">
         <v>2020</v>
       </c>
-      <c r="R2">
-        <f>Q2+1</f>
+      <c r="AD2">
+        <f>AC2+1</f>
         <v>2021</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:AF2" si="0">R2+1</f>
+      <c r="AE2">
+        <f t="shared" ref="AE2:AR2" si="0">AD2+1</f>
         <v>2022</v>
       </c>
-      <c r="T2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="U2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="V2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="W2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="X2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Y2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Z2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AA2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AB2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AC2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AD2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AE2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AF2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1146,10 +1216,22 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1177,10 +1259,22 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1208,10 +1302,22 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="7" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>62429</v>
@@ -1251,21 +1357,33 @@
         <f>+J7*1.03</f>
         <v>74070.39</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AC7" s="3">
         <v>264212</v>
       </c>
-      <c r="R7" s="3">
+      <c r="AD7" s="3">
         <f>SUM(G7:J7)</f>
         <v>291572</v>
       </c>
-      <c r="S7" s="3">
+      <c r="AE7" s="3">
         <f>SUM(K7:N7)</f>
         <v>292942.36</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1283,10 +1401,22 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1304,10 +1434,22 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1327,10 +1469,22 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1348,10 +1502,22 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1369,10 +1535,22 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1390,8 +1568,20 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1404,10 +1594,22 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4">
         <v>17713</v>
@@ -1447,21 +1649,33 @@
         <f>+J15*0.99</f>
         <v>21302.82</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AC15" s="3">
         <v>82271</v>
       </c>
-      <c r="R15" s="3">
+      <c r="AD15" s="3">
         <f>SUM(G15:J15)</f>
         <v>88666</v>
       </c>
-      <c r="S15" s="3">
+      <c r="AE15" s="3">
         <f>SUM(K15:N15)</f>
         <v>80198.87</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4">
         <v>26475</v>
@@ -1501,21 +1715,33 @@
         <f>+J16*1.01</f>
         <v>48437.58</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AC16" s="3">
         <v>128086</v>
       </c>
-      <c r="R16" s="3">
+      <c r="AD16" s="3">
         <f>SUM(G16:J16)</f>
         <v>172195</v>
       </c>
-      <c r="S16" s="3">
+      <c r="AE16" s="3">
         <f>SUM(K16:N16)</f>
         <v>177163.75</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4">
         <v>1448</v>
@@ -1555,21 +1781,33 @@
         <f>+J17*1.01</f>
         <v>2826.9900000000002</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AC17" s="3">
         <v>7495</v>
       </c>
-      <c r="R17" s="3">
+      <c r="AD17" s="3">
         <f>SUM(G17:J17)</f>
         <v>7685</v>
       </c>
-      <c r="S17" s="3">
+      <c r="AE17" s="3">
         <f>SUM(K17:N17)</f>
         <v>7675.52</v>
       </c>
     </row>
-    <row r="18" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:36" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" ref="C18" si="1">C17+C16+C15+C7</f>
@@ -1619,42 +1857,54 @@
         <f>N17+N16+N15+N7</f>
         <v>146637.78</v>
       </c>
-      <c r="Q18" s="6">
-        <f t="shared" ref="Q18:X18" si="4">Q17+Q16+Q15+Q7</f>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AC18" s="6">
+        <f t="shared" ref="AC18:AJ18" si="4">AC17+AC16+AC15+AC7</f>
         <v>482064</v>
       </c>
-      <c r="R18" s="6">
+      <c r="AD18" s="6">
         <f t="shared" si="4"/>
         <v>560118</v>
       </c>
-      <c r="S18" s="6">
+      <c r="AE18" s="6">
         <f t="shared" si="4"/>
         <v>557980.5</v>
       </c>
-      <c r="T18" s="6">
+      <c r="AF18" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U18" s="6">
+      <c r="AG18" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V18" s="6">
+      <c r="AH18" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="6">
+      <c r="AI18" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X18" s="6">
+      <c r="AJ18" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4">
         <v>55271</v>
@@ -1694,20 +1944,32 @@
         <f>+N18-N20</f>
         <v>82117.156799999997</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AC19" s="3">
         <v>260532</v>
       </c>
-      <c r="R19" s="3">
+      <c r="AD19" s="3">
         <v>314174</v>
       </c>
-      <c r="S19" s="3">
+      <c r="AE19" s="3">
         <f>SUM(K19:N19)</f>
         <v>316110.28000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ref="C20" si="5">C18-C19</f>
@@ -1757,22 +2019,34 @@
         <f>+N18*0.44</f>
         <v>64520.623200000002</v>
       </c>
-      <c r="Q20" s="3">
-        <f t="shared" ref="Q20" si="9">Q18-Q19</f>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AC20" s="3">
+        <f t="shared" ref="AC20" si="9">AC18-AC19</f>
         <v>221532</v>
       </c>
-      <c r="R20" s="3">
-        <f>R18-R19</f>
+      <c r="AD20" s="3">
+        <f>AD18-AD19</f>
         <v>245944</v>
       </c>
-      <c r="S20" s="3">
-        <f>S18-S19</f>
+      <c r="AE20" s="3">
+        <f>AE18-AE19</f>
         <v>241870.21999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
         <v>14158</v>
@@ -1812,20 +2086,32 @@
         <f>+J21*0.95</f>
         <v>23161</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AC21" s="3">
         <v>67625</v>
       </c>
-      <c r="R21" s="3">
+      <c r="AD21" s="3">
         <v>89847</v>
       </c>
-      <c r="S21" s="3">
+      <c r="AE21" s="3">
         <f>SUM(K21:N21)</f>
         <v>98731.9</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
         <v>7049</v>
@@ -1865,20 +2151,32 @@
         <f>+J22*0.95</f>
         <v>11035.199999999999</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AC22" s="3">
         <v>33758</v>
       </c>
-      <c r="R22" s="3">
+      <c r="AD22" s="3">
         <v>40594</v>
       </c>
-      <c r="S22" s="3">
+      <c r="AE22" s="3">
         <f>SUM(K22:N22)</f>
         <v>36938.449999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" ref="C23" si="10">C21+C22</f>
@@ -1928,22 +2226,34 @@
         <f t="shared" si="15"/>
         <v>34196.199999999997</v>
       </c>
-      <c r="Q23" s="3">
-        <f t="shared" ref="Q23" si="16">Q21+Q22</f>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AC23" s="3">
+        <f t="shared" ref="AC23" si="16">AC21+AC22</f>
         <v>101383</v>
       </c>
-      <c r="R23" s="3">
-        <f>R21+R22</f>
+      <c r="AD23" s="3">
+        <f>AD21+AD22</f>
         <v>130441</v>
       </c>
-      <c r="S23" s="3">
-        <f>S21+S22</f>
+      <c r="AE23" s="3">
+        <f>AE21+AE22</f>
         <v>135670.34999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" ref="C24" si="17">C20-C23</f>
@@ -1993,22 +2303,34 @@
         <f t="shared" si="22"/>
         <v>30324.423200000005</v>
       </c>
-      <c r="Q24" s="3">
-        <f t="shared" ref="Q24" si="23">Q20-Q23</f>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AC24" s="3">
+        <f t="shared" ref="AC24" si="23">AC20-AC23</f>
         <v>120149</v>
       </c>
-      <c r="R24" s="3">
-        <f>R20-R23</f>
+      <c r="AD24" s="3">
+        <f>AD20-AD23</f>
         <v>115503</v>
       </c>
-      <c r="S24" s="3">
-        <f>S20-S23</f>
+      <c r="AE24" s="3">
+        <f>AE20-AE23</f>
         <v>106199.87</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4">
         <f>1636+4037-1684-281</f>
@@ -2058,22 +2380,34 @@
         <f>AVERAGE(J25:M25)</f>
         <v>27480.75</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AC25" s="3">
         <f>6957+57131-7887+3672</f>
         <v>59873</v>
       </c>
-      <c r="R25" s="3">
+      <c r="AD25" s="3">
         <f>6650+149467-7114-16444</f>
         <v>132559</v>
       </c>
-      <c r="S25" s="3">
+      <c r="AE25" s="3">
         <f>SUM(K25:N25)</f>
         <v>59631.75</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" ref="C26" si="24">C24+C25</f>
@@ -2123,22 +2457,34 @@
         <f t="shared" si="28"/>
         <v>57805.173200000005</v>
       </c>
-      <c r="Q26" s="3">
-        <f>Q24+Q25</f>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AC26" s="3">
+        <f>AC24+AC25</f>
         <v>180022</v>
       </c>
-      <c r="R26" s="3">
-        <f>R24+R25</f>
+      <c r="AD26" s="3">
+        <f>AD24+AD25</f>
         <v>248062</v>
       </c>
-      <c r="S26" s="3">
-        <f>S24+S25</f>
+      <c r="AE26" s="3">
+        <f>AE24+AE25</f>
         <v>165831.62</v>
       </c>
     </row>
-    <row r="27" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4">
         <f>5892+507</f>
@@ -2187,22 +2533,34 @@
         <f>+N26*0.15</f>
         <v>8670.7759800000003</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AC27" s="3">
         <f>19897+278</f>
         <v>20175</v>
       </c>
-      <c r="R27" s="3">
+      <c r="AD27" s="3">
         <f>20252+2988</f>
         <v>23240</v>
       </c>
-      <c r="S27" s="3">
+      <c r="AE27" s="3">
         <f>SUM(K27:N27)</f>
         <v>27111.743000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" ref="C28" si="29">C26-C27</f>
@@ -2253,22 +2611,34 @@
         <v>49134.397220000006</v>
       </c>
       <c r="O28" s="4"/>
-      <c r="Q28" s="3">
-        <f>Q26-Q27</f>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AC28" s="3">
+        <f>AC26-AC27</f>
         <v>159847</v>
       </c>
-      <c r="R28" s="3">
-        <f>R26-R27</f>
+      <c r="AD28" s="3">
+        <f>AD26-AD27</f>
         <v>224822</v>
       </c>
-      <c r="S28" s="3">
-        <f>S26-S27</f>
+      <c r="AE28" s="3">
+        <f>AE26-AE27</f>
         <v>138719.87699999998</v>
       </c>
     </row>
-    <row r="29" spans="2:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4">
         <v>27079</v>
@@ -2302,16 +2672,28 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="Q29" s="3">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AC29" s="3">
         <v>122742</v>
       </c>
-      <c r="R29" s="3">
+      <c r="AD29" s="3">
         <v>123788</v>
       </c>
     </row>
-    <row r="31" spans="2:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:36" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2349,108 +2731,144 @@
         <f>N18/J18-1</f>
         <v>1.6990179487890833E-2</v>
       </c>
-      <c r="R31" s="11">
-        <f>R18/Q18-1</f>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AD31" s="11">
+        <f>AD18/AC18-1</f>
         <v>0.16191626008164883</v>
       </c>
-      <c r="S31" s="11">
-        <f>S18/R18-1</f>
+      <c r="AE31" s="11">
+        <f>AE18/AD18-1</f>
         <v>-3.8161601662506373E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="14">
+        <v>83</v>
+      </c>
+      <c r="E32" s="13">
         <f t="shared" ref="E32:K32" si="36">+E20/E18</f>
         <v>0.45156121708769442</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <f t="shared" si="36"/>
         <v>0.44049854491318108</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <f t="shared" si="36"/>
         <v>0.46292395586202817</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <f t="shared" si="36"/>
         <v>0.45382217432499872</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <f t="shared" si="36"/>
         <v>0.44073808721060914</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <f t="shared" si="36"/>
         <v>0.4009834382889006</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <f t="shared" si="36"/>
         <v>0.42130049973795131</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <f>+L20/L18</f>
         <v>0.43173373920050134</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="13">
         <f t="shared" ref="M32:N32" si="37">+M20/M18</f>
         <v>0.44</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="13">
         <f t="shared" si="37"/>
         <v>0.44</v>
       </c>
-      <c r="R32" s="15"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AD32" s="14"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="14">
+        <v>84</v>
+      </c>
+      <c r="E33" s="13">
         <f>+E27/E26</f>
         <v>0.13656525830010305</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <f t="shared" ref="F33:N33" si="38">+F27/F26</f>
         <v>5.986239259329719E-2</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <f t="shared" si="38"/>
         <v>0.15086927151846979</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <f t="shared" si="38"/>
         <v>8.7838416723783411E-2</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <f t="shared" si="38"/>
         <v>0.13216333164935093</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <f t="shared" si="38"/>
         <v>4.6539415420762502E-2</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <f t="shared" si="38"/>
         <v>0.19271084752775672</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <f t="shared" si="38"/>
         <v>0.19194890326918229</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="13">
         <f t="shared" si="38"/>
         <v>0.15</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="13">
         <f t="shared" si="38"/>
         <v>0.15</v>
       </c>
-      <c r="R33" s="15"/>
-    </row>
-    <row r="34" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AD33" s="14"/>
+    </row>
+    <row r="34" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2463,10 +2881,22 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2486,10 +2916,22 @@
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2507,10 +2949,22 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2528,10 +2982,22 @@
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2549,10 +3015,22 @@
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2571,10 +3049,22 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2592,10 +3082,22 @@
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2615,10 +3117,22 @@
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2638,10 +3152,22 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2661,8 +3187,20 @@
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2675,10 +3213,22 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+    </row>
+    <row r="45" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2698,10 +3248,22 @@
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+    </row>
+    <row r="46" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2721,10 +3283,22 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+    </row>
+    <row r="47" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2744,10 +3318,22 @@
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+    </row>
+    <row r="48" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2767,10 +3353,22 @@
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+    </row>
+    <row r="49" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2790,10 +3388,22 @@
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+    </row>
+    <row r="50" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2811,10 +3421,22 @@
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2834,10 +3456,22 @@
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-    </row>
-    <row r="53" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+    </row>
+    <row r="53" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2855,6 +3489,18 @@
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
